--- a/Model_utilisateur.xlsx
+++ b/Model_utilisateur.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Toamasina</t>
   </si>
   <si>
-    <t xml:space="preserve">Alaotra-Mangoro</t>
+    <t xml:space="preserve">Alaotra Mangoro</t>
   </si>
   <si>
     <t xml:space="preserve">Nom3</t>
@@ -178,7 +178,7 @@
     <t xml:space="preserve">drap13@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Atsimo-Atsinanana</t>
+    <t xml:space="preserve">Atsimo Atsinanana</t>
   </si>
   <si>
     <t xml:space="preserve">Nom14</t>
@@ -214,7 +214,7 @@
     <t xml:space="preserve">drap17@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Atsimo-Andrefana</t>
+    <t xml:space="preserve">Atsimo Andrefana</t>
   </si>
   <si>
     <t xml:space="preserve">Nom18</t>
@@ -260,7 +260,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -281,12 +281,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="0"/>
     </font>
   </fonts>
@@ -332,16 +326,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -365,10 +355,10 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.68"/>
@@ -484,7 +474,7 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="0" t="s">
